--- a/data/input/absenteeism_data_43.xlsx
+++ b/data/input/absenteeism_data_43.xlsx
@@ -476,40 +476,40 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>90479</v>
+        <v>49900</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>André Ramos</t>
+          <t>Vitor da Cruz</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45079</v>
+        <v>45097</v>
       </c>
       <c r="G2" t="n">
-        <v>2965.15</v>
+        <v>5504.45</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>49096</v>
+        <v>1794</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Marcos Vinicius Cunha</t>
+          <t>Maria Gomes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -519,142 +519,142 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45086</v>
+        <v>45083</v>
       </c>
       <c r="G3" t="n">
-        <v>5755.16</v>
+        <v>6782.79</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>56331</v>
+        <v>55952</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Joaquim da Costa</t>
+          <t>Danilo Cunha</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45105</v>
+        <v>45095</v>
       </c>
       <c r="G4" t="n">
-        <v>6116.21</v>
+        <v>6262.64</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>77814</v>
+        <v>56144</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Marcos Vinicius Oliveira</t>
+          <t>Yasmin Costa</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45105</v>
+        <v>45103</v>
       </c>
       <c r="G5" t="n">
-        <v>3491.69</v>
+        <v>4873.34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>68808</v>
+        <v>58857</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Luana Viana</t>
+          <t>Juliana Jesus</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45105</v>
+        <v>45103</v>
       </c>
       <c r="G6" t="n">
-        <v>10783.66</v>
+        <v>3036.02</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>84815</v>
+        <v>62121</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Gustavo Carvalho</t>
+          <t>Maria Eduarda Costela</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45093</v>
+        <v>45087</v>
       </c>
       <c r="G7" t="n">
-        <v>10724.41</v>
+        <v>9295.639999999999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>83309</v>
+        <v>69899</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Luigi Silveira</t>
+          <t>Maria Alice Dias</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -664,104 +664,104 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E8" t="n">
         <v>5</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45086</v>
+        <v>45093</v>
       </c>
       <c r="G8" t="n">
-        <v>4577.05</v>
+        <v>11366.94</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>15400</v>
+        <v>34743</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Luiz Henrique da Costa</t>
+          <t>Felipe da Luz</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45085</v>
+        <v>45095</v>
       </c>
       <c r="G9" t="n">
-        <v>3165.75</v>
+        <v>10752.81</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>9905</v>
+        <v>4003</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Luiz Henrique Araújo</t>
+          <t>Camila Caldeira</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45089</v>
+        <v>45079</v>
       </c>
       <c r="G10" t="n">
-        <v>5357.35</v>
+        <v>8787.959999999999</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>26055</v>
+        <v>6375</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Valentina Viana</t>
+          <t>Helena Vieira</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45106</v>
+        <v>45084</v>
       </c>
       <c r="G11" t="n">
-        <v>10456.6</v>
+        <v>9607.459999999999</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/absenteeism_data_43.xlsx
+++ b/data/input/absenteeism_data_43.xlsx
@@ -476,45 +476,45 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>49900</v>
+        <v>52009</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Vitor da Cruz</t>
+          <t>Matheus da Rosa</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>3</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45097</v>
+        <v>45100</v>
       </c>
       <c r="G2" t="n">
-        <v>5504.45</v>
+        <v>8284.360000000001</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1794</v>
+        <v>57199</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Maria Gomes</t>
+          <t>Maria Luiza Pinto</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -523,56 +523,56 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45083</v>
+        <v>45088</v>
       </c>
       <c r="G3" t="n">
-        <v>6782.79</v>
+        <v>10342.65</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>55952</v>
+        <v>29609</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Danilo Cunha</t>
+          <t>Matheus Martins</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>8</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45095</v>
+        <v>45080</v>
       </c>
       <c r="G4" t="n">
-        <v>6262.64</v>
+        <v>9202.57</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>56144</v>
+        <v>58587</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Yasmin Costa</t>
+          <t>Alexandre Monteiro</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -581,56 +581,56 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45103</v>
+        <v>45080</v>
       </c>
       <c r="G5" t="n">
-        <v>4873.34</v>
+        <v>6290.6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>58857</v>
+        <v>8233</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Juliana Jesus</t>
+          <t>André Souza</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E6" t="n">
         <v>4</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45103</v>
+        <v>45095</v>
       </c>
       <c r="G6" t="n">
-        <v>3036.02</v>
+        <v>10885.36</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>62121</v>
+        <v>11028</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Maria Eduarda Costela</t>
+          <t>Juan Fogaça</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -645,74 +645,74 @@
         <v>45087</v>
       </c>
       <c r="G7" t="n">
-        <v>9295.639999999999</v>
+        <v>3293.69</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>69899</v>
+        <v>13571</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Maria Alice Dias</t>
+          <t>Bernardo Barbosa</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45093</v>
+        <v>45104</v>
       </c>
       <c r="G8" t="n">
-        <v>11366.94</v>
+        <v>11756.99</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>34743</v>
+        <v>6171</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Felipe da Luz</t>
+          <t>Dr. Antônio Mendes</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F9" s="2" t="n">
         <v>45095</v>
       </c>
       <c r="G9" t="n">
-        <v>10752.81</v>
+        <v>5427.2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4003</v>
+        <v>22395</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Camila Caldeira</t>
+          <t>Gabrielly Almeida</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -726,42 +726,42 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45079</v>
+        <v>45092</v>
       </c>
       <c r="G10" t="n">
-        <v>8787.959999999999</v>
+        <v>11234.36</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>6375</v>
+        <v>53961</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Helena Vieira</t>
+          <t>Cecília Correia</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45084</v>
+        <v>45097</v>
       </c>
       <c r="G11" t="n">
-        <v>9607.459999999999</v>
+        <v>9039.620000000001</v>
       </c>
     </row>
   </sheetData>
